--- a/products.xlsx
+++ b/products.xlsx
@@ -94,12 +94,12 @@
     <t>Дешеддер Perfect Coat S для кошек</t>
   </si>
   <si>
+    <t>Колтунорез для кошек и собак 18.5 см, серо-белый</t>
+  </si>
+  <si>
     <t>Пуходерка с автоматической уборкой шерсти и капелькой для кошек и собак, 19,5х10,7х5,8 см, голубая</t>
   </si>
   <si>
-    <t>Колтунорез для кошек и собак 18.5 см, серо-белый</t>
-  </si>
-  <si>
     <t>Сумка фиксатор для кошки М</t>
   </si>
   <si>
@@ -115,21 +115,21 @@
     <t>Фурминатор для маленьких кошек с длинной шерстью S</t>
   </si>
   <si>
+    <t>Кусачки 8 см</t>
+  </si>
+  <si>
     <t>Беспроводной гриндер Nail Grinder для ухода за когтями</t>
   </si>
   <si>
-    <t>Кусачки 8 см</t>
+    <t>Когтерез гильотина 16см</t>
+  </si>
+  <si>
+    <t>Сумка фиксатор для кошки L</t>
   </si>
   <si>
     <t>Пуходерка пластмассовая средняя с каплей</t>
   </si>
   <si>
-    <t>Когтерез гильотина 16см</t>
-  </si>
-  <si>
-    <t>Сумка фиксатор для кошки L</t>
-  </si>
-  <si>
     <t>Расческа противоблошиная для кошек и собак 13 см</t>
   </si>
   <si>
@@ -151,28 +151,31 @@
     <t>Ножницы прямые филировочные для стрижки собак и кошек 17 см</t>
   </si>
   <si>
+    <t>Расчёска-триммер, большой 11х15,5см</t>
+  </si>
+  <si>
+    <t>Пуходерка с жесткими щетинками для кошек и собак</t>
+  </si>
+  <si>
+    <t>Машинка для стрижки Rex Mini</t>
+  </si>
+  <si>
+    <t>Расческа-щетка двойная 20,5см</t>
+  </si>
+  <si>
     <t>Рукавица для шерсти серо-черная</t>
   </si>
   <si>
-    <t>Расчёска-триммер, большой 11х15,5см</t>
-  </si>
-  <si>
-    <t>Пуходерка с жесткими щетинками для кошек и собак</t>
-  </si>
-  <si>
-    <t>Машинка для стрижки Rex Mini</t>
-  </si>
-  <si>
-    <t>Расческа-щетка двойная 20,5см</t>
-  </si>
-  <si>
     <t>Когтерез для кошек, S, 7x0,8x10,5 см</t>
   </si>
   <si>
+    <t>Пуходерка пластиковая L</t>
+  </si>
+  <si>
     <t>Щетка для сбора шерсти, 19 см, голубая</t>
   </si>
   <si>
-    <t>Пуходерка пластиковая L</t>
+    <t>Пуходерка пластиковая с каплей малая</t>
   </si>
   <si>
     <t>Расческа с вращающимися зубцами</t>
@@ -184,9 +187,6 @@
     <t>Щетка резиновая для кошек, М, 6,8x6,8x14 см</t>
   </si>
   <si>
-    <t>Пуходерка пластиковая с каплей малая</t>
-  </si>
-  <si>
     <t>Пуходерка металлическая S</t>
   </si>
   <si>
@@ -208,6 +208,9 @@
     <t>Фурминатор для маленьких кошек с короткой шерстью S</t>
   </si>
   <si>
+    <t>Пуходерка пластмассовая малая с каплей</t>
+  </si>
+  <si>
     <t>Щетка для кошек и собак массажная 19.5 см, голубая</t>
   </si>
   <si>
@@ -217,7 +220,7 @@
     <t>Eco Расческа для кошек и собак с натуральной щетиной бамбук S 19 см</t>
   </si>
   <si>
-    <t>Пуходерка пластмассовая малая с каплей</t>
+    <t>Щетка массажная для кошек, М, 8,8x4x17 см</t>
   </si>
   <si>
     <t>Пуходерка для кошек и собак M 19 см, голубая</t>
@@ -238,9 +241,6 @@
     <t>Пуходерка пластмассовая большая с каплей</t>
   </si>
   <si>
-    <t>Щетка массажная для кошек, М, 8,8x4x17 см</t>
-  </si>
-  <si>
     <t>Расческа-триммер для кошек и собак, 15х9,07х6,5 см, серо-белая</t>
   </si>
   <si>
@@ -271,6 +271,9 @@
     <t>Eco Расческа для кошек и собак противоблошиная бамбук 21 см</t>
   </si>
   <si>
+    <t>Щетка-пуходерка для кошек, S, 7,3x3,3x16,5 см</t>
+  </si>
+  <si>
     <t>Расческа с редкими зубьями 21,5см</t>
   </si>
   <si>
@@ -289,9 +292,6 @@
     <t>Пуходерка металлическая L</t>
   </si>
   <si>
-    <t>Щетка-пуходерка для кошек, S, 7,3x3,3x16,5 см</t>
-  </si>
-  <si>
     <t>Накладные колпачки, черные M</t>
   </si>
   <si>
@@ -325,42 +325,42 @@
     <t>Накладные колпачки, прозрачные S</t>
   </si>
   <si>
+    <t>Пуходерка с шариками для кошек GRO 5799, 14,5x6,8x3,5 см</t>
+  </si>
+  <si>
+    <t>Щетка для купания кошек и собак</t>
+  </si>
+  <si>
+    <t>Расческа-щетка маленькая двойная для кошек GRO 5798, 5,5x5,5x19.5 см</t>
+  </si>
+  <si>
+    <t>Расческа-грабли для кошек и собак 16 см, розовая</t>
+  </si>
+  <si>
+    <t>Eco Расческа для кошек и собак с частыми зубьями бамбук 21,5 см</t>
+  </si>
+  <si>
+    <t>Накладные колпачки, бирюзовые S</t>
+  </si>
+  <si>
+    <t>Накладные колпачки, разноцветные M</t>
+  </si>
+  <si>
+    <t>Накладные колпачки, серебряные M</t>
+  </si>
+  <si>
+    <t>Накладные колпачки, бирюзовые M</t>
+  </si>
+  <si>
+    <t>Пуходерка для кошек с каплей мини</t>
+  </si>
+  <si>
+    <t>Пуходерка для кошек мягкий корд пластик</t>
+  </si>
+  <si>
     <t>Гребень для кошек от блох GRO 5788, 1x7,5x19 см</t>
   </si>
   <si>
-    <t>Пуходерка с шариками для кошек GRO 5799, 14,5x6,8x3,5 см</t>
-  </si>
-  <si>
-    <t>Щетка для купания кошек и собак</t>
-  </si>
-  <si>
-    <t>Расческа-щетка маленькая двойная для кошек GRO 5798, 5,5x5,5x19.5 см</t>
-  </si>
-  <si>
-    <t>Расческа-грабли для кошек и собак 16 см, розовая</t>
-  </si>
-  <si>
-    <t>Eco Расческа для кошек и собак с частыми зубьями бамбук 21,5 см</t>
-  </si>
-  <si>
-    <t>Накладные колпачки, серебряные M</t>
-  </si>
-  <si>
-    <t>Накладные колпачки, бирюзовые S</t>
-  </si>
-  <si>
-    <t>Накладные колпачки, разноцветные M</t>
-  </si>
-  <si>
-    <t>Накладные колпачки, бирюзовые M</t>
-  </si>
-  <si>
-    <t>Пуходерка для кошек с каплей мини</t>
-  </si>
-  <si>
-    <t>Пуходерка для кошек мягкий корд пластик</t>
-  </si>
-  <si>
     <t>Щётка-пуходерка с пластиковой щетиной, 7х16см</t>
   </si>
   <si>
@@ -403,21 +403,21 @@
     <t>Расческа для собак с вращающимися длинными зубьями 37 зубьев</t>
   </si>
   <si>
+    <t>Щетка круглая двусторонняя 5х17 см, дерево</t>
+  </si>
+  <si>
     <t>Расческа для кошек и собак разнозубая мини</t>
   </si>
   <si>
-    <t>Щетка круглая двусторонняя 5х17 см, дерево</t>
-  </si>
-  <si>
     <t>Накладные колпачки, золотые M</t>
   </si>
   <si>
+    <t>Накладные колпачки, серебряные S</t>
+  </si>
+  <si>
     <t>Накладные колпачки, красные/бел (двухцв) M</t>
   </si>
   <si>
-    <t>Накладные колпачки, серебряные S</t>
-  </si>
-  <si>
     <t>Eco Расческа для кошек и собак с редкими зубьями бамбук 21,5 см</t>
   </si>
   <si>
@@ -760,12 +760,12 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/furminatory/deshedder-perfect-coat-s-dlya-koshek.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/koltunorezy/rascheska-grabli-18-5sm-sero-belaya.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/pukhoderki/puhoderka-s-avtomaticheskoy-uborkoy-shersti-i-kapelkoy-19-5sm-golubaya.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/koltunorezy/rascheska-grabli-18-5sm-sero-belaya.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/fiksiruyushchie-perenoski/Sumka_fiksator_dlya_koshki_r_M_1020054.html</t>
   </si>
   <si>
@@ -781,21 +781,21 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/furminatory/furminator-furminator-s-dlya-malenkih-koshek-c-dlinnoy-sherstyu.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/kogterezy/triksi_kusachki_8_sm.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/kogterezy-gruming/grinder-moser.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/kogterezy/triksi_kusachki_8_sm.html</t>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/kogterezy-gruming/kogterez-gilotina-16sm.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/fiksiruyushchie-perenoski/Sumka_fiksator_dlya_koshki_rL_1021684.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/Puhoderka_plastmassovaya__srednyaya_s_kapley_sredney_gestkosti_na_blistere_1016225.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/kogterezy-gruming/kogterez-gilotina-16sm.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/fiksiruyushchie-perenoski/Sumka_fiksator_dlya_koshki_rL_1021684.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheska-protivobloshinaya-13sm.html</t>
   </si>
   <si>
@@ -817,28 +817,31 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/nozhnitsy/nozhnicy-pryamye-filirovochnye.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheska-trimmer-grooming/furminator-bolshoy-11-15-5sm.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/pukhoderka-s-zhestkimi-shchetinkami.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/mashinki-dlya-strizhki-gruming/Mashinka_dlya_strigki_givotnyh_1009044.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-shchetka-dvoynaya-20-5sm.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/rukavica-dlya-shersti-sero-belaya.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheska-trimmer-grooming/furminator-bolshoy-11-15-5sm.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/pukhoderka-s-zhestkimi-shchetinkami.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/mashinki-dlya-strizhki-gruming/Mashinka_dlya_strigki_givotnyh_1009044.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-shchetka-dvoynaya-20-5sm.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/kogterezy/kogterez-dlya-koshek-malyy-s.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/puhoderka-plastikovaya-l.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/shchetka-dlya-sbora-shersti-19sm-golubaya.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/puhoderka-plastikovaya-l.html</t>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_168210_S_Pet_Layn_s_kapley_plastikovaya_malaya_1003111.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-dlya-vychesyvaniya-bloh-21sm.html</t>
@@ -850,9 +853,6 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-rezinovaya-dlya-koshek1.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_168210_S_Pet_Layn_s_kapley_plastikovaya_malaya_1003111.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/puhoderka-metallicheskaya-s.html</t>
   </si>
   <si>
@@ -874,6 +874,9 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/furminatory/furminator-furminator-s-dlya-malenkih-koshek-c-korotkoy-sherstyu.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/Puhoderka_plastmassovaya_malaya_s_kapley_myagkaya_na_blistere_1016227.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheski-gruming/shchetka-massazhnaya-19-5sm-golubaya.html</t>
   </si>
   <si>
@@ -883,7 +886,7 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-s-naturalnoy-shchetinoy-bambuk-s-19sm.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/Puhoderka_plastmassovaya_malaya_s_kapley_myagkaya_na_blistere_1016227.html</t>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-massazhnaya-dlya-koshek-srednyaya-m.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/puhoderka-m-19sm-golubaya.html</t>
@@ -904,9 +907,6 @@
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/Puhoderka_plastmassovaya_bolshaya_s_kapley_sredney_gestkosti_na_blistere_1016226.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-massazhnaya-dlya-koshek-srednyaya-m.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheska-trimmer-grooming/rascheska-trimmer-sero-belaya-29sm.html</t>
   </si>
   <si>
@@ -937,6 +937,9 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-protivobloshinaya-bambuk-21sm.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-puhoderka-dlya-koshek-malaya-s.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-s-redkimi-zubyami-21-5sm.html</t>
   </si>
   <si>
@@ -955,9 +958,6 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/puhoderka-metallicheskaya-l.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-puhoderka-dlya-koshek-malaya-s.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-chernye-m.html</t>
   </si>
   <si>
@@ -991,42 +991,42 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-prozrachnye-s.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Ferplast_GRO_5799_puhoderka_dlya_koshek__s_sharikami__1022189.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/shchetka-dlya-kupaniya.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/ferplast-gro-5798-rascheska-shchetka-dlya-koshek-dvoynaya-malenkaya.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheski-gruming/rascheska-grabli-16sm-rozovaya.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-s-chastymi-zubyami-bambuk-21-5sm.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-biryuzovye-s.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/nakladnye-kolpachki-raznocvetnye-m.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-serebryanye-m.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-biryuzovye-m.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_348610_Pet_Layn_s_kapley_mini_1003040.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_16821S_Pet_Layn_myagkiy_kord_plastik_1003109.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/Ferplast_GRO_5788_greben_dlya_koshek_1022186.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Ferplast_GRO_5799_puhoderka_dlya_koshek__s_sharikami__1022189.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/shchetka-dlya-kupaniya.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/ferplast-gro-5798-rascheska-shchetka-dlya-koshek-dvoynaya-malenkaya.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheski-gruming/rascheska-grabli-16sm-rozovaya.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-s-chastymi-zubyami-bambuk-21-5sm.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-serebryanye-m.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-biryuzovye-s.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/nakladnye-kolpachki-raznocvetnye-m.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-biryuzovye-m.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_348610_Pet_Layn_s_kapley_mini_1003040.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_16821S_Pet_Layn_myagkiy_kord_plastik_1003109.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/SHCHetkapuhoderka_dlya_kosheksobak_Triksi_s_plastikovoy_shchetinoy_7h16_sm_1003099.html</t>
   </si>
   <si>
@@ -1072,19 +1072,19 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/Rascheska_dlya_sobak_148437_Pet_Layn_s_vrashchayushchimisya_dlinnymi_zubyami_37_zubev_1004953.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/SHCHetka_dlya_kosheksobak_Triksi_s_derevyannoy_ruchkoy_ovalnaya_dvustoronnyaya_17h7_sm_1002773.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/Rascheska_dlya_kosheksobak_3480_LS_Pet_Layn_raznozubaya_mini_1003042.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/SHCHetka_dlya_kosheksobak_Triksi_s_derevyannoy_ruchkoy_ovalnaya_dvustoronnyaya_17h7_sm_1002773.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-zolotye-m.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-serebryanye-s.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-krasnye-belye-dvuhcvetnye-m.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-serebryanye-s.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-s-redkimi-zubyami-bambuk-21-5sm.html</t>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>152791</v>
+        <v>152815</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2163,10 +2163,10 @@
         <v>248</v>
       </c>
       <c r="E21">
-        <v>899</v>
+        <v>599</v>
       </c>
       <c r="F21">
-        <v>899</v>
+        <v>599</v>
       </c>
       <c r="G21" t="s">
         <v>431</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>152815</v>
+        <v>152791</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -2186,10 +2186,10 @@
         <v>249</v>
       </c>
       <c r="E22">
-        <v>599</v>
+        <v>899</v>
       </c>
       <c r="F22">
-        <v>599</v>
+        <v>899</v>
       </c>
       <c r="G22" t="s">
         <v>431</v>
@@ -2312,22 +2312,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>86310</v>
+        <v>66524</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E28">
-        <v>2929</v>
+        <v>375</v>
       </c>
       <c r="F28">
-        <v>2929</v>
+        <v>375</v>
       </c>
       <c r="G28" t="s">
         <v>431</v>
@@ -2335,22 +2335,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>66524</v>
+        <v>86310</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E29">
-        <v>375</v>
+        <v>2929</v>
       </c>
       <c r="F29">
-        <v>375</v>
+        <v>2929</v>
       </c>
       <c r="G29" t="s">
         <v>431</v>
@@ -2358,22 +2358,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>54476</v>
+        <v>96669</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>257</v>
       </c>
       <c r="E30">
-        <v>205</v>
+        <v>439</v>
       </c>
       <c r="F30">
-        <v>205</v>
+        <v>439</v>
       </c>
       <c r="G30" t="s">
         <v>431</v>
@@ -2381,22 +2381,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>96669</v>
+        <v>35038</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E31">
-        <v>439</v>
+        <v>1227</v>
       </c>
       <c r="F31">
-        <v>439</v>
+        <v>1227</v>
       </c>
       <c r="G31" t="s">
         <v>431</v>
@@ -2404,22 +2404,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>35038</v>
+        <v>54476</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>259</v>
       </c>
       <c r="E32">
-        <v>1227</v>
+        <v>205</v>
       </c>
       <c r="F32">
-        <v>1227</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
         <v>431</v>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>152821</v>
+        <v>96659</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E40">
-        <v>599</v>
+        <v>1457</v>
       </c>
       <c r="F40">
-        <v>599</v>
+        <v>1457</v>
       </c>
       <c r="G40" t="s">
         <v>431</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>96659</v>
+        <v>148851</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E41">
-        <v>1457</v>
+        <v>1629</v>
       </c>
       <c r="F41">
-        <v>1457</v>
+        <v>1629</v>
       </c>
       <c r="G41" t="s">
         <v>431</v>
@@ -2634,22 +2634,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>148851</v>
+        <v>36742</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>269</v>
       </c>
       <c r="E42">
-        <v>1629</v>
+        <v>3979</v>
       </c>
       <c r="F42">
-        <v>1629</v>
+        <v>3979</v>
       </c>
       <c r="G42" t="s">
         <v>431</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>36742</v>
+        <v>96647</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>270</v>
       </c>
       <c r="E43">
-        <v>3979</v>
+        <v>429</v>
       </c>
       <c r="F43">
-        <v>3979</v>
+        <v>429</v>
       </c>
       <c r="G43" t="s">
         <v>431</v>
@@ -2680,22 +2680,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>96647</v>
+        <v>152821</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E44">
-        <v>429</v>
+        <v>599</v>
       </c>
       <c r="F44">
-        <v>429</v>
+        <v>599</v>
       </c>
       <c r="G44" t="s">
         <v>431</v>
@@ -2726,22 +2726,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>152785</v>
+        <v>96635</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>273</v>
       </c>
       <c r="E46">
-        <v>397</v>
+        <v>511</v>
       </c>
       <c r="F46">
-        <v>397</v>
+        <v>511</v>
       </c>
       <c r="G46" t="s">
         <v>431</v>
@@ -2749,22 +2749,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>96635</v>
+        <v>152785</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>274</v>
       </c>
       <c r="E47">
-        <v>511</v>
+        <v>397</v>
       </c>
       <c r="F47">
-        <v>511</v>
+        <v>397</v>
       </c>
       <c r="G47" t="s">
         <v>431</v>
@@ -2772,22 +2772,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>96649</v>
+        <v>34990</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E48">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="F48">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="G48" t="s">
         <v>431</v>
@@ -2795,22 +2795,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>35036</v>
+        <v>96649</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>276</v>
       </c>
       <c r="E49">
-        <v>1099</v>
+        <v>345</v>
       </c>
       <c r="F49">
-        <v>1099</v>
+        <v>345</v>
       </c>
       <c r="G49" t="s">
         <v>431</v>
@@ -2818,22 +2818,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>149537</v>
+        <v>35036</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>277</v>
       </c>
       <c r="E50">
-        <v>499</v>
+        <v>1099</v>
       </c>
       <c r="F50">
-        <v>499</v>
+        <v>1099</v>
       </c>
       <c r="G50" t="s">
         <v>431</v>
@@ -2841,22 +2841,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>34990</v>
+        <v>149537</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E51">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="F51">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="G51" t="s">
         <v>431</v>
@@ -3025,22 +3025,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>152797</v>
+        <v>39414</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>286</v>
       </c>
       <c r="E59">
-        <v>447</v>
+        <v>179</v>
       </c>
       <c r="F59">
-        <v>447</v>
+        <v>179</v>
       </c>
       <c r="G59" t="s">
         <v>431</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>152805</v>
+        <v>152797</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -3060,10 +3060,10 @@
         <v>287</v>
       </c>
       <c r="E60">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F60">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="G60" t="s">
         <v>431</v>
@@ -3071,22 +3071,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>148127</v>
+        <v>152805</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>288</v>
       </c>
       <c r="E61">
-        <v>527</v>
+        <v>429</v>
       </c>
       <c r="F61">
-        <v>527</v>
+        <v>429</v>
       </c>
       <c r="G61" t="s">
         <v>431</v>
@@ -3094,22 +3094,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>39414</v>
+        <v>148127</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>289</v>
       </c>
       <c r="E62">
-        <v>179</v>
+        <v>527</v>
       </c>
       <c r="F62">
-        <v>179</v>
+        <v>527</v>
       </c>
       <c r="G62" t="s">
         <v>431</v>
@@ -3117,22 +3117,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>152801</v>
+        <v>149531</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>290</v>
       </c>
       <c r="E63">
-        <v>399</v>
+        <v>837</v>
       </c>
       <c r="F63">
-        <v>399</v>
+        <v>837</v>
       </c>
       <c r="G63" t="s">
         <v>431</v>
@@ -3140,22 +3140,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>148125</v>
+        <v>152801</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>291</v>
       </c>
       <c r="E64">
-        <v>567</v>
+        <v>399</v>
       </c>
       <c r="F64">
-        <v>567</v>
+        <v>399</v>
       </c>
       <c r="G64" t="s">
         <v>431</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>148133</v>
+        <v>148125</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
@@ -3175,10 +3175,10 @@
         <v>292</v>
       </c>
       <c r="E65">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="F65">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="G65" t="s">
         <v>431</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>148119</v>
+        <v>148133</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
@@ -3198,10 +3198,10 @@
         <v>293</v>
       </c>
       <c r="E66">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F66">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="G66" t="s">
         <v>431</v>
@@ -3209,22 +3209,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>149529</v>
+        <v>148119</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>294</v>
       </c>
       <c r="E67">
-        <v>715</v>
+        <v>567</v>
       </c>
       <c r="F67">
-        <v>715</v>
+        <v>567</v>
       </c>
       <c r="G67" t="s">
         <v>431</v>
@@ -3232,22 +3232,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>48390</v>
+        <v>149529</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E68">
-        <v>211</v>
+        <v>715</v>
       </c>
       <c r="F68">
-        <v>211</v>
+        <v>715</v>
       </c>
       <c r="G68" t="s">
         <v>431</v>
@@ -3255,22 +3255,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>149531</v>
+        <v>48390</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E69">
-        <v>837</v>
+        <v>211</v>
       </c>
       <c r="F69">
-        <v>837</v>
+        <v>211</v>
       </c>
       <c r="G69" t="s">
         <v>431</v>
@@ -3508,22 +3508,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>96653</v>
+        <v>149525</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>307</v>
       </c>
       <c r="E80">
-        <v>299</v>
+        <v>667</v>
       </c>
       <c r="F80">
-        <v>299</v>
+        <v>667</v>
       </c>
       <c r="G80" t="s">
         <v>431</v>
@@ -3531,22 +3531,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>149527</v>
+        <v>96653</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E81">
-        <v>765</v>
+        <v>299</v>
       </c>
       <c r="F81">
-        <v>765</v>
+        <v>299</v>
       </c>
       <c r="G81" t="s">
         <v>431</v>
@@ -3554,22 +3554,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>148855</v>
+        <v>149527</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>309</v>
       </c>
       <c r="E82">
-        <v>1039</v>
+        <v>765</v>
       </c>
       <c r="F82">
-        <v>1039</v>
+        <v>765</v>
       </c>
       <c r="G82" t="s">
         <v>431</v>
@@ -3577,22 +3577,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>87023</v>
+        <v>148855</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E83">
-        <v>299</v>
+        <v>1039</v>
       </c>
       <c r="F83">
-        <v>299</v>
+        <v>1039</v>
       </c>
       <c r="G83" t="s">
         <v>431</v>
@@ -3600,22 +3600,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>35040</v>
+        <v>87023</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>311</v>
       </c>
       <c r="E84">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="F84">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="G84" t="s">
         <v>431</v>
@@ -3623,22 +3623,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>96641</v>
+        <v>35040</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E85">
-        <v>499</v>
+        <v>335</v>
       </c>
       <c r="F85">
-        <v>499</v>
+        <v>335</v>
       </c>
       <c r="G85" t="s">
         <v>431</v>
@@ -3646,22 +3646,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>149525</v>
+        <v>96641</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>313</v>
       </c>
       <c r="E86">
-        <v>667</v>
+        <v>499</v>
       </c>
       <c r="F86">
-        <v>667</v>
+        <v>499</v>
       </c>
       <c r="G86" t="s">
         <v>431</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>35042</v>
+        <v>35044</v>
       </c>
       <c r="B98" t="s">
         <v>103</v>
@@ -3934,10 +3934,10 @@
         <v>325</v>
       </c>
       <c r="E98">
-        <v>389</v>
+        <v>577</v>
       </c>
       <c r="F98">
-        <v>389</v>
+        <v>577</v>
       </c>
       <c r="G98" t="s">
         <v>431</v>
@@ -3945,22 +3945,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>35044</v>
+        <v>148859</v>
       </c>
       <c r="B99" t="s">
         <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>326</v>
       </c>
       <c r="E99">
-        <v>577</v>
+        <v>1099</v>
       </c>
       <c r="F99">
-        <v>577</v>
+        <v>1099</v>
       </c>
       <c r="G99" t="s">
         <v>431</v>
@@ -3968,22 +3968,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>148859</v>
+        <v>79197</v>
       </c>
       <c r="B100" t="s">
         <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E100">
-        <v>1099</v>
+        <v>539</v>
       </c>
       <c r="F100">
-        <v>1099</v>
+        <v>539</v>
       </c>
       <c r="G100" t="s">
         <v>431</v>
@@ -3991,22 +3991,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>79197</v>
+        <v>152811</v>
       </c>
       <c r="B101" t="s">
         <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>328</v>
       </c>
       <c r="E101">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F101">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G101" t="s">
         <v>431</v>
@@ -4014,22 +4014,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>152811</v>
+        <v>148141</v>
       </c>
       <c r="B102" t="s">
         <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>329</v>
       </c>
       <c r="E102">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F102">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="G102" t="s">
         <v>431</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>148141</v>
+        <v>87029</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
@@ -4049,10 +4049,10 @@
         <v>330</v>
       </c>
       <c r="E103">
-        <v>527</v>
+        <v>299</v>
       </c>
       <c r="F103">
-        <v>527</v>
+        <v>299</v>
       </c>
       <c r="G103" t="s">
         <v>431</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>87047</v>
+        <v>110744</v>
       </c>
       <c r="B104" t="s">
         <v>109</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>87029</v>
+        <v>87047</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>110744</v>
+        <v>87031</v>
       </c>
       <c r="B106" t="s">
         <v>111</v>
@@ -4129,22 +4129,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>87031</v>
+        <v>34980</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>334</v>
       </c>
       <c r="E107">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="F107">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="G107" t="s">
         <v>431</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>34980</v>
+        <v>34986</v>
       </c>
       <c r="B108" t="s">
         <v>113</v>
@@ -4164,10 +4164,10 @@
         <v>335</v>
       </c>
       <c r="E108">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F108">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G108" t="s">
         <v>431</v>
@@ -4175,22 +4175,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>34986</v>
+        <v>35042</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>336</v>
       </c>
       <c r="E109">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="F109">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="G109" t="s">
         <v>431</v>
@@ -4500,7 +4500,7 @@
         <v>148147</v>
       </c>
       <c r="B123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s">
         <v>208</v>
@@ -4543,13 +4543,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>39412</v>
+        <v>39406</v>
       </c>
       <c r="B125" t="s">
         <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>352</v>
@@ -4566,13 +4566,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>39406</v>
+        <v>39412</v>
       </c>
       <c r="B126" t="s">
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>353</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>87041</v>
+        <v>87045</v>
       </c>
       <c r="B128" t="s">
         <v>132</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>87045</v>
+        <v>87041</v>
       </c>
       <c r="B129" t="s">
         <v>133</v>

--- a/products.xlsx
+++ b/products.xlsx
@@ -76,12 +76,12 @@
     <t>Фурминатор для больших кошек с длинной шерстью M-L</t>
   </si>
   <si>
+    <t>Машинка для стрижки животных ZIVER-215 Moray, 15Вт</t>
+  </si>
+  <si>
     <t>Триммер аккумуляторный для животных ZIVER-221 8 Вт, 2-скоростной Li-Ion аккумулятор без эффекта памяти</t>
   </si>
   <si>
-    <t>Машинка для стрижки животных ZIVER-215 Moray, 15Вт</t>
-  </si>
-  <si>
     <t>Массажная щетка на руку 13см</t>
   </si>
   <si>
@@ -94,15 +94,15 @@
     <t>Дешеддер Perfect Coat S для кошек</t>
   </si>
   <si>
+    <t>Сумка фиксатор для кошки М</t>
+  </si>
+  <si>
     <t>Колтунорез для кошек и собак 18.5 см, серо-белый</t>
   </si>
   <si>
     <t>Пуходерка с автоматической уборкой шерсти и капелькой для кошек и собак, 19,5х10,7х5,8 см, голубая</t>
   </si>
   <si>
-    <t>Сумка фиксатор для кошки М</t>
-  </si>
-  <si>
     <t>Пуходерка пластиковая M</t>
   </si>
   <si>
@@ -127,15 +127,18 @@
     <t>Сумка фиксатор для кошки L</t>
   </si>
   <si>
+    <t>Расчёска-триммер, большой 11х15,5см</t>
+  </si>
+  <si>
+    <t>Пуходерка металлическая M</t>
+  </si>
+  <si>
     <t>Пуходерка пластмассовая средняя с каплей</t>
   </si>
   <si>
     <t>Расческа противоблошиная для кошек и собак 13 см</t>
   </si>
   <si>
-    <t>Пуходерка металлическая M</t>
-  </si>
-  <si>
     <t>Расчёска-триммер, средний 8х15,5см</t>
   </si>
   <si>
@@ -151,7 +154,7 @@
     <t>Ножницы прямые филировочные для стрижки собак и кошек 17 см</t>
   </si>
   <si>
-    <t>Расчёска-триммер, большой 11х15,5см</t>
+    <t>Рукавица для шерсти серо-черная</t>
   </si>
   <si>
     <t>Пуходерка с жесткими щетинками для кошек и собак</t>
@@ -163,9 +166,6 @@
     <t>Расческа-щетка двойная 20,5см</t>
   </si>
   <si>
-    <t>Рукавица для шерсти серо-черная</t>
-  </si>
-  <si>
     <t>Когтерез для кошек, S, 7x0,8x10,5 см</t>
   </si>
   <si>
@@ -178,54 +178,54 @@
     <t>Пуходерка пластиковая с каплей малая</t>
   </si>
   <si>
+    <t>Сумка фиксатор для кошки S</t>
+  </si>
+  <si>
+    <t>Расческа с зубцами разной длины</t>
+  </si>
+  <si>
+    <t>Щетка резиновая для кошек, М, 6,8x6,8x14 см</t>
+  </si>
+  <si>
     <t>Расческа с вращающимися зубцами</t>
   </si>
   <si>
-    <t>Сумка фиксатор для кошки S</t>
-  </si>
-  <si>
-    <t>Щетка резиновая для кошек, М, 6,8x6,8x14 см</t>
-  </si>
-  <si>
     <t>Пуходерка металлическая S</t>
   </si>
   <si>
-    <t>Расческа с зубцами разной длины</t>
-  </si>
-  <si>
     <t>Расческа-щетка для кошек и собак двусторонняя S 19.5 см, розовая</t>
   </si>
   <si>
     <t>Расческа 3 в 1 для кошек и собак, голубая, 9х10 см</t>
   </si>
   <si>
+    <t>Щетка для кошек и собак массажная 19.5 см, голубая</t>
+  </si>
+  <si>
+    <t>Eco Расческа для кошек и собак с натуральной щетиной бамбук S 19 см</t>
+  </si>
+  <si>
+    <t>Пуходерка с автоматической уборкой шерсти для кошек и собак, 19,5х10,7х5,8 см, розовая</t>
+  </si>
+  <si>
+    <t>Фурминатор для маленьких кошек с короткой шерстью S</t>
+  </si>
+  <si>
+    <t>Расческа-щетка для кошек и собак двусторонняя M 22.6 см, голубая</t>
+  </si>
+  <si>
+    <t>Пуходерка для кошек и собак M 19 см, голубая</t>
+  </si>
+  <si>
     <t>Пуходерка пластиковая XL</t>
   </si>
   <si>
-    <t>Пуходерка с автоматической уборкой шерсти для кошек и собак, 19,5х10,7х5,8 см, розовая</t>
-  </si>
-  <si>
-    <t>Фурминатор для маленьких кошек с короткой шерстью S</t>
-  </si>
-  <si>
     <t>Пуходерка пластмассовая малая с каплей</t>
   </si>
   <si>
-    <t>Щетка для кошек и собак массажная 19.5 см, голубая</t>
-  </si>
-  <si>
-    <t>Расческа-щетка для кошек и собак двусторонняя M 22.6 см, голубая</t>
-  </si>
-  <si>
-    <t>Eco Расческа для кошек и собак с натуральной щетиной бамбук S 19 см</t>
-  </si>
-  <si>
     <t>Щетка массажная для кошек, М, 8,8x4x17 см</t>
   </si>
   <si>
-    <t>Пуходерка для кошек и собак M 19 см, голубая</t>
-  </si>
-  <si>
     <t>Eco Расческа для кошек и собак массажная бамбук M 22 см</t>
   </si>
   <si>
@@ -268,36 +268,36 @@
     <t>Расческа массажная для кошек и собак, голубая</t>
   </si>
   <si>
+    <t>Щетка-пуходерка для кошек, S, 7,3x3,3x16,5 см</t>
+  </si>
+  <si>
+    <t>Расческа с редкими зубьями 21,5см</t>
+  </si>
+  <si>
+    <t>Когтерез для кошек GRO 5808, 0,5x6x0,7 см</t>
+  </si>
+  <si>
+    <t>Накладные колпачки, прозрачные M</t>
+  </si>
+  <si>
     <t>Eco Расческа для кошек и собак противоблошиная бамбук 21 см</t>
   </si>
   <si>
-    <t>Щетка-пуходерка для кошек, S, 7,3x3,3x16,5 см</t>
-  </si>
-  <si>
-    <t>Расческа с редкими зубьями 21,5см</t>
-  </si>
-  <si>
     <t>Щетка-пуходерка для кошек, M, 9,5x3,5x17 см</t>
   </si>
   <si>
     <t>Расческа Curry Comb резиновая с зубцами 5 мм для кошек и собак</t>
   </si>
   <si>
-    <t>Накладные колпачки, прозрачные M</t>
-  </si>
-  <si>
-    <t>Когтерез для кошек GRO 5808, 0,5x6x0,7 см</t>
-  </si>
-  <si>
     <t>Пуходерка металлическая L</t>
   </si>
   <si>
+    <t>Накладные колпачки, розовые S</t>
+  </si>
+  <si>
     <t>Накладные колпачки, черные M</t>
   </si>
   <si>
-    <t>Накладные колпачки, розовые S</t>
-  </si>
-  <si>
     <t>Расческа для кошек и собак с частыми зубьями 21 см, розовая</t>
   </si>
   <si>
@@ -322,6 +322,9 @@
     <t>Гребень Rake с вращающимися зубцами 18 мм для кошек и собак</t>
   </si>
   <si>
+    <t>Пуходерка для кошек мягкий корд пластик</t>
+  </si>
+  <si>
     <t>Накладные колпачки, прозрачные S</t>
   </si>
   <si>
@@ -340,6 +343,9 @@
     <t>Eco Расческа для кошек и собак с частыми зубьями бамбук 21,5 см</t>
   </si>
   <si>
+    <t>Пуходерка для кошек с каплей металлическая средняя</t>
+  </si>
+  <si>
     <t>Накладные колпачки, бирюзовые S</t>
   </si>
   <si>
@@ -355,9 +361,6 @@
     <t>Пуходерка для кошек с каплей мини</t>
   </si>
   <si>
-    <t>Пуходерка для кошек мягкий корд пластик</t>
-  </si>
-  <si>
     <t>Гребень для кошек от блох GRO 5788, 1x7,5x19 см</t>
   </si>
   <si>
@@ -394,9 +397,6 @@
     <t>Перчатка для груминга серая</t>
   </si>
   <si>
-    <t>Пуходерка для кошек с каплей металлическая средняя</t>
-  </si>
-  <si>
     <t>Рукавица для животных для ухода за шерстью 18х24см</t>
   </si>
   <si>
@@ -409,15 +409,18 @@
     <t>Расческа для кошек и собак разнозубая мини</t>
   </si>
   <si>
+    <t>Накладные колпачки, зеленые светонакопит M</t>
+  </si>
+  <si>
+    <t>Накладные колпачки, красные/бел (двухцв) M</t>
+  </si>
+  <si>
+    <t>Накладные колпачки, серебряные S</t>
+  </si>
+  <si>
     <t>Накладные колпачки, золотые M</t>
   </si>
   <si>
-    <t>Накладные колпачки, серебряные S</t>
-  </si>
-  <si>
-    <t>Накладные колпачки, красные/бел (двухцв) M</t>
-  </si>
-  <si>
     <t>Eco Расческа для кошек и собак с редкими зубьями бамбук 21,5 см</t>
   </si>
   <si>
@@ -436,9 +439,6 @@
     <t>Накладные колпачки, фиолетовые M</t>
   </si>
   <si>
-    <t>Накладные колпачки, зеленые светонакопит M</t>
-  </si>
-  <si>
     <t>Щетка-триммер для кошек, S, 5x5x14 см</t>
   </si>
   <si>
@@ -742,12 +742,12 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/furminatory/furminator-furminator-m-l-dlya-bolshih-koshek-c-dlinnoy-sherstyu.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/mashinka-dlya-strizhki-zhivotnyh-akkumulyatorno-setevaya-ziver-215-morey-15vt.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/mashinki-dlya-strizhki-gruming/trimmer-akkumulyatornyy-dlya-zhivotnykh-ziver-221-8-vt-2-skorostnoy-li-ion-akkumulyator-bez-effekta-pamyati.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/mashinka-dlya-strizhki-zhivotnyh-akkumulyatorno-setevaya-ziver-215-morey-15vt.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/massazhnaya-shchetka-na-ruku-13sm.html</t>
   </si>
   <si>
@@ -760,15 +760,15 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/furminatory/deshedder-perfect-coat-s-dlya-koshek.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/fiksiruyushchie-perenoski/Sumka_fiksator_dlya_koshki_r_M_1020054.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/koltunorezy/rascheska-grabli-18-5sm-sero-belaya.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/pukhoderki/puhoderka-s-avtomaticheskoy-uborkoy-shersti-i-kapelkoy-19-5sm-golubaya.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/fiksiruyushchie-perenoski/Sumka_fiksator_dlya_koshki_r_M_1020054.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/puhoderka-plastikovaya-m.html</t>
   </si>
   <si>
@@ -793,15 +793,18 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/fiksiruyushchie-perenoski/Sumka_fiksator_dlya_koshki_rL_1021684.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheska-trimmer-grooming/furminator-bolshoy-11-15-5sm.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/puhoderka-metallicheskaya-m.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/Puhoderka_plastmassovaya__srednyaya_s_kapley_sredney_gestkosti_na_blistere_1016225.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheska-protivobloshinaya-13sm.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/puhoderka-metallicheskaya-m.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/furminator-sredniy-8-15-5sm.html</t>
   </si>
   <si>
@@ -817,7 +820,7 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/nozhnitsy/nozhnicy-pryamye-filirovochnye.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheska-trimmer-grooming/furminator-bolshoy-11-15-5sm.html</t>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/rukavica-dlya-shersti-sero-belaya.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/pukhoderka-s-zhestkimi-shchetinkami.html</t>
@@ -829,9 +832,6 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-shchetka-dvoynaya-20-5sm.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/rukavica-dlya-shersti-sero-belaya.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/kogterezy/kogterez-dlya-koshek-malyy-s.html</t>
   </si>
   <si>
@@ -844,54 +844,54 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_168210_S_Pet_Layn_s_kapley_plastikovaya_malaya_1003111.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/fiksiruyushchie-perenoski/Sumka_fiksator_dlya_koshki_r_S_1020053.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheski-gruming/rascheska-raznozubaya-21sm.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-rezinovaya-dlya-koshek1.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-dlya-vychesyvaniya-bloh-21sm.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/fiksiruyushchie-perenoski/Sumka_fiksator_dlya_koshki_r_S_1020053.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-rezinovaya-dlya-koshek1.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/puhoderka-metallicheskaya-s.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheski-gruming/rascheska-raznozubaya-21sm.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-shchetka-dvustoronnyaya-s-19-5sm-rozovaya.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-3v1-golubaya.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheski-gruming/shchetka-massazhnaya-19-5sm-golubaya.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-s-naturalnoy-shchetinoy-bambuk-s-19sm.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/pukhoderki/puhoderka-s-avtomaticheskoy-uborkoy-shersti-19-5sm-rozovaya.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/furminatory/furminator-furminator-s-dlya-malenkih-koshek-c-korotkoy-sherstyu.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-shchetka-dvustoronnyaya-m-22-6sm-golubaya.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/puhoderka-m-19sm-golubaya.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/puhoderka-plastikovaya-xl.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/pukhoderki/puhoderka-s-avtomaticheskoy-uborkoy-shersti-19-5sm-rozovaya.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/furminatory/furminator-furminator-s-dlya-malenkih-koshek-c-korotkoy-sherstyu.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/Puhoderka_plastmassovaya_malaya_s_kapley_myagkaya_na_blistere_1016227.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheski-gruming/shchetka-massazhnaya-19-5sm-golubaya.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-shchetka-dvustoronnyaya-m-22-6sm-golubaya.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-s-naturalnoy-shchetinoy-bambuk-s-19sm.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-massazhnaya-dlya-koshek-srednyaya-m.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/puhoderka-m-19sm-golubaya.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-massazhnaya-bambuk-m-22sm.html</t>
   </si>
   <si>
@@ -934,36 +934,36 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-massazhnaya-golubaya.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-puhoderka-dlya-koshek-malaya-s.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-s-redkimi-zubyami-21-5sm.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/kogterezy/Ferplast_GRO_5808_kogterez_dlya_koshek_1022185.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-prozrachnye-m.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-protivobloshinaya-bambuk-21sm.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-puhoderka-dlya-koshek-malaya-s.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-s-redkimi-zubyami-21-5sm.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-puhoderka-dlya-koshek-srednyaya-m.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/curry-comb-rascheska-rezinovaya-zubtsy-5mm.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-prozrachnye-m.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/kogterezy/Ferplast_GRO_5808_kogterez_dlya_koshek_1022185.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/puhoderka-metallicheskaya-l.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/nakladnye-kolpachki-rozovye-s.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-chernye-m.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/nakladnye-kolpachki-rozovye-s.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-s-chastymi-zubyami-21sm-rozovaya.html</t>
   </si>
   <si>
@@ -988,6 +988,9 @@
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/rascheski-gruming/rake-greben-s-vrashchayushchimisya-zubtsami-18mm.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_16821S_Pet_Layn_myagkiy_kord_plastik_1003109.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-prozrachnye-s.html</t>
   </si>
   <si>
@@ -1006,6 +1009,9 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-s-chastymi-zubyami-bambuk-21-5sm.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_168110M_Pet_Layn_s_kapley_metallicheskaya_srednyaya_1003108.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-biryuzovye-s.html</t>
   </si>
   <si>
@@ -1021,9 +1027,6 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_348610_Pet_Layn_s_kapley_mini_1003040.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_16821S_Pet_Layn_myagkiy_kord_plastik_1003109.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/Ferplast_GRO_5788_greben_dlya_koshek_1022186.html</t>
   </si>
   <si>
@@ -1060,9 +1063,6 @@
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-gruminga/pukhoderki/perchatka-dlya-gruminga-seraya.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_168110M_Pet_Layn_s_kapley_metallicheskaya_srednyaya_1003108.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/Rukavitsa_dlya_givotnyh_Triksi_dlya_uhoda_za_sherstyu_18h24sm_1005948.html</t>
   </si>
   <si>
@@ -1078,15 +1078,18 @@
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/Rascheska_dlya_kosheksobak_3480_LS_Pet_Layn_raznozubaya_mini_1003042.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-zelenye-svetonakopitelnye-m.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-krasnye-belye-dvuhcvetnye-m.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-serebryanye-s.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-zolotye-m.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-serebryanye-s.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-krasnye-belye-dvuhcvetnye-m.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/eco-rascheska-s-redkimi-zubyami-bambuk-21-5sm.html</t>
   </si>
   <si>
@@ -1103,9 +1106,6 @@
   </si>
   <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-fioletovye-m.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-zelenye-svetonakopitelnye-m.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/shchetka-trimmer-dlya-koshek-malaya-s.html</t>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>136901</v>
+        <v>91625</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -2025,10 +2025,10 @@
         <v>242</v>
       </c>
       <c r="E15">
-        <v>3629</v>
+        <v>5775</v>
       </c>
       <c r="F15">
-        <v>3629</v>
+        <v>5775</v>
       </c>
       <c r="G15" t="s">
         <v>431</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>91625</v>
+        <v>136901</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -2048,10 +2048,10 @@
         <v>243</v>
       </c>
       <c r="E16">
-        <v>5775</v>
+        <v>3629</v>
       </c>
       <c r="F16">
-        <v>5775</v>
+        <v>3629</v>
       </c>
       <c r="G16" t="s">
         <v>431</v>
@@ -2143,7 +2143,7 @@
         <v>1399</v>
       </c>
       <c r="F20">
-        <v>1189.15</v>
+        <v>1190</v>
       </c>
       <c r="G20" t="s">
         <v>432</v>
@@ -2151,22 +2151,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>152815</v>
+        <v>49133</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>248</v>
       </c>
       <c r="E21">
-        <v>599</v>
+        <v>1165</v>
       </c>
       <c r="F21">
-        <v>599</v>
+        <v>1165</v>
       </c>
       <c r="G21" t="s">
         <v>431</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>152791</v>
+        <v>152815</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -2186,10 +2186,10 @@
         <v>249</v>
       </c>
       <c r="E22">
-        <v>899</v>
+        <v>599</v>
       </c>
       <c r="F22">
-        <v>899</v>
+        <v>599</v>
       </c>
       <c r="G22" t="s">
         <v>431</v>
@@ -2197,22 +2197,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>49133</v>
+        <v>152791</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>250</v>
       </c>
       <c r="E23">
-        <v>1165</v>
+        <v>899</v>
       </c>
       <c r="F23">
-        <v>1165</v>
+        <v>899</v>
       </c>
       <c r="G23" t="s">
         <v>431</v>
@@ -2404,22 +2404,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>54476</v>
+        <v>96659</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>259</v>
       </c>
       <c r="E32">
-        <v>205</v>
+        <v>1457</v>
       </c>
       <c r="F32">
-        <v>205</v>
+        <v>1457</v>
       </c>
       <c r="G32" t="s">
         <v>431</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>148111</v>
+        <v>96643</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
@@ -2439,41 +2439,41 @@
         <v>260</v>
       </c>
       <c r="E33">
-        <v>199</v>
+        <v>427</v>
       </c>
       <c r="F33">
-        <v>199</v>
+        <v>363</v>
       </c>
       <c r="G33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>96643</v>
+        <v>54476</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E34">
-        <v>427</v>
+        <v>205</v>
       </c>
       <c r="F34">
-        <v>362.95</v>
+        <v>205</v>
       </c>
       <c r="G34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>96661</v>
+        <v>148111</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -2485,10 +2485,10 @@
         <v>262</v>
       </c>
       <c r="E35">
-        <v>1119</v>
+        <v>199</v>
       </c>
       <c r="F35">
-        <v>1119</v>
+        <v>199</v>
       </c>
       <c r="G35" t="s">
         <v>431</v>
@@ -2496,22 +2496,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>148849</v>
+        <v>96661</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E36">
-        <v>2199</v>
+        <v>1119</v>
       </c>
       <c r="F36">
-        <v>2199</v>
+        <v>1119</v>
       </c>
       <c r="G36" t="s">
         <v>431</v>
@@ -2519,22 +2519,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>148113</v>
+        <v>148849</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E37">
-        <v>245</v>
+        <v>2199</v>
       </c>
       <c r="F37">
-        <v>245</v>
+        <v>2199</v>
       </c>
       <c r="G37" t="s">
         <v>431</v>
@@ -2542,22 +2542,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>152783</v>
+        <v>148113</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>265</v>
       </c>
       <c r="E38">
-        <v>999</v>
+        <v>245</v>
       </c>
       <c r="F38">
-        <v>999</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
         <v>431</v>
@@ -2565,22 +2565,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>148117</v>
+        <v>152783</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>266</v>
       </c>
       <c r="E39">
-        <v>769</v>
+        <v>999</v>
       </c>
       <c r="F39">
-        <v>769</v>
+        <v>999</v>
       </c>
       <c r="G39" t="s">
         <v>431</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>96659</v>
+        <v>148117</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -2600,10 +2600,10 @@
         <v>267</v>
       </c>
       <c r="E40">
-        <v>1457</v>
+        <v>769</v>
       </c>
       <c r="F40">
-        <v>1457</v>
+        <v>769</v>
       </c>
       <c r="G40" t="s">
         <v>431</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>148851</v>
+        <v>152821</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E41">
-        <v>1629</v>
+        <v>599</v>
       </c>
       <c r="F41">
-        <v>1629</v>
+        <v>599</v>
       </c>
       <c r="G41" t="s">
         <v>431</v>
@@ -2634,22 +2634,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>36742</v>
+        <v>148851</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>269</v>
       </c>
       <c r="E42">
-        <v>3979</v>
+        <v>1629</v>
       </c>
       <c r="F42">
-        <v>3979</v>
+        <v>1629</v>
       </c>
       <c r="G42" t="s">
         <v>431</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>96647</v>
+        <v>36742</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>270</v>
       </c>
       <c r="E43">
-        <v>429</v>
+        <v>3979</v>
       </c>
       <c r="F43">
-        <v>429</v>
+        <v>3979</v>
       </c>
       <c r="G43" t="s">
         <v>431</v>
@@ -2680,22 +2680,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>152821</v>
+        <v>96647</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E44">
-        <v>599</v>
+        <v>429</v>
       </c>
       <c r="F44">
-        <v>599</v>
+        <v>429</v>
       </c>
       <c r="G44" t="s">
         <v>431</v>
@@ -2795,22 +2795,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>96649</v>
+        <v>35036</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>276</v>
       </c>
       <c r="E49">
-        <v>345</v>
+        <v>1099</v>
       </c>
       <c r="F49">
-        <v>345</v>
+        <v>1099</v>
       </c>
       <c r="G49" t="s">
         <v>431</v>
@@ -2818,22 +2818,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>35036</v>
+        <v>96655</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>277</v>
       </c>
       <c r="E50">
-        <v>1099</v>
+        <v>299</v>
       </c>
       <c r="F50">
-        <v>1099</v>
+        <v>299</v>
       </c>
       <c r="G50" t="s">
         <v>431</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>96645</v>
+        <v>96649</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
@@ -2876,10 +2876,10 @@
         <v>279</v>
       </c>
       <c r="E52">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="F52">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="G52" t="s">
         <v>431</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>96655</v>
+        <v>96645</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
@@ -2899,10 +2899,10 @@
         <v>280</v>
       </c>
       <c r="E53">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="F53">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="G53" t="s">
         <v>431</v>
@@ -2956,22 +2956,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>96633</v>
+        <v>152797</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>283</v>
       </c>
       <c r="E56">
-        <v>567</v>
+        <v>447</v>
       </c>
       <c r="F56">
-        <v>567</v>
+        <v>447</v>
       </c>
       <c r="G56" t="s">
         <v>431</v>
@@ -2979,22 +2979,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>152789</v>
+        <v>148127</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>284</v>
       </c>
       <c r="E57">
-        <v>899</v>
+        <v>527</v>
       </c>
       <c r="F57">
-        <v>899</v>
+        <v>527</v>
       </c>
       <c r="G57" t="s">
         <v>431</v>
@@ -3002,22 +3002,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>99465</v>
+        <v>152789</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>285</v>
       </c>
       <c r="E58">
-        <v>2619</v>
+        <v>899</v>
       </c>
       <c r="F58">
-        <v>2619</v>
+        <v>899</v>
       </c>
       <c r="G58" t="s">
         <v>431</v>
@@ -3025,22 +3025,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>39414</v>
+        <v>99465</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>286</v>
       </c>
       <c r="E59">
-        <v>179</v>
+        <v>2619</v>
       </c>
       <c r="F59">
-        <v>179</v>
+        <v>2619</v>
       </c>
       <c r="G59" t="s">
         <v>431</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>152797</v>
+        <v>152805</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -3060,10 +3060,10 @@
         <v>287</v>
       </c>
       <c r="E60">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="F60">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="G60" t="s">
         <v>431</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>152805</v>
+        <v>152801</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
@@ -3083,10 +3083,10 @@
         <v>288</v>
       </c>
       <c r="E61">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="F61">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="G61" t="s">
         <v>431</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>148127</v>
+        <v>96633</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
@@ -3106,10 +3106,10 @@
         <v>289</v>
       </c>
       <c r="E62">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="F62">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="G62" t="s">
         <v>431</v>
@@ -3117,22 +3117,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>149531</v>
+        <v>39414</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>290</v>
       </c>
       <c r="E63">
-        <v>837</v>
+        <v>179</v>
       </c>
       <c r="F63">
-        <v>837</v>
+        <v>179</v>
       </c>
       <c r="G63" t="s">
         <v>431</v>
@@ -3140,22 +3140,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>152801</v>
+        <v>149531</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>291</v>
       </c>
       <c r="E64">
-        <v>399</v>
+        <v>837</v>
       </c>
       <c r="F64">
-        <v>399</v>
+        <v>837</v>
       </c>
       <c r="G64" t="s">
         <v>431</v>
@@ -3485,22 +3485,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>148151</v>
+        <v>149525</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>306</v>
       </c>
       <c r="E79">
-        <v>445</v>
+        <v>667</v>
       </c>
       <c r="F79">
-        <v>445</v>
+        <v>667</v>
       </c>
       <c r="G79" t="s">
         <v>431</v>
@@ -3508,22 +3508,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>149525</v>
+        <v>96653</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>307</v>
       </c>
       <c r="E80">
-        <v>667</v>
+        <v>299</v>
       </c>
       <c r="F80">
-        <v>667</v>
+        <v>299</v>
       </c>
       <c r="G80" t="s">
         <v>431</v>
@@ -3531,22 +3531,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>96653</v>
+        <v>35040</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E81">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="F81">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G81" t="s">
         <v>431</v>
@@ -3554,22 +3554,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>149527</v>
+        <v>87023</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>309</v>
       </c>
       <c r="E82">
-        <v>765</v>
+        <v>299</v>
       </c>
       <c r="F82">
-        <v>765</v>
+        <v>299</v>
       </c>
       <c r="G82" t="s">
         <v>431</v>
@@ -3577,22 +3577,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>148855</v>
+        <v>148151</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E83">
-        <v>1039</v>
+        <v>445</v>
       </c>
       <c r="F83">
-        <v>1039</v>
+        <v>445</v>
       </c>
       <c r="G83" t="s">
         <v>431</v>
@@ -3600,22 +3600,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>87023</v>
+        <v>149527</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>311</v>
       </c>
       <c r="E84">
-        <v>299</v>
+        <v>765</v>
       </c>
       <c r="F84">
-        <v>299</v>
+        <v>765</v>
       </c>
       <c r="G84" t="s">
         <v>431</v>
@@ -3623,22 +3623,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>35040</v>
+        <v>148855</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E85">
-        <v>335</v>
+        <v>1039</v>
       </c>
       <c r="F85">
-        <v>335</v>
+        <v>1039</v>
       </c>
       <c r="G85" t="s">
         <v>431</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>87027</v>
+        <v>110738</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>110738</v>
+        <v>87027</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
@@ -3899,22 +3899,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>87021</v>
+        <v>34986</v>
       </c>
       <c r="B97" t="s">
         <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>324</v>
       </c>
       <c r="E97">
-        <v>299</v>
+        <v>415</v>
       </c>
       <c r="F97">
-        <v>299</v>
+        <v>415</v>
       </c>
       <c r="G97" t="s">
         <v>431</v>
@@ -3922,22 +3922,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>35044</v>
+        <v>87021</v>
       </c>
       <c r="B98" t="s">
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>325</v>
       </c>
       <c r="E98">
-        <v>577</v>
+        <v>299</v>
       </c>
       <c r="F98">
-        <v>577</v>
+        <v>299</v>
       </c>
       <c r="G98" t="s">
         <v>431</v>
@@ -3945,22 +3945,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>148859</v>
+        <v>35044</v>
       </c>
       <c r="B99" t="s">
         <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>326</v>
       </c>
       <c r="E99">
-        <v>1099</v>
+        <v>577</v>
       </c>
       <c r="F99">
-        <v>1099</v>
+        <v>577</v>
       </c>
       <c r="G99" t="s">
         <v>431</v>
@@ -3968,22 +3968,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>79197</v>
+        <v>148859</v>
       </c>
       <c r="B100" t="s">
         <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E100">
-        <v>539</v>
+        <v>1099</v>
       </c>
       <c r="F100">
-        <v>539</v>
+        <v>1099</v>
       </c>
       <c r="G100" t="s">
         <v>431</v>
@@ -3991,22 +3991,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>152811</v>
+        <v>79197</v>
       </c>
       <c r="B101" t="s">
         <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>328</v>
       </c>
       <c r="E101">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F101">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G101" t="s">
         <v>431</v>
@@ -4014,22 +4014,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>148141</v>
+        <v>152811</v>
       </c>
       <c r="B102" t="s">
         <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>329</v>
       </c>
       <c r="E102">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="F102">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G102" t="s">
         <v>431</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>87029</v>
+        <v>148141</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
@@ -4049,10 +4049,10 @@
         <v>330</v>
       </c>
       <c r="E103">
-        <v>299</v>
+        <v>527</v>
       </c>
       <c r="F103">
-        <v>299</v>
+        <v>527</v>
       </c>
       <c r="G103" t="s">
         <v>431</v>
@@ -4060,22 +4060,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>110744</v>
+        <v>34984</v>
       </c>
       <c r="B104" t="s">
         <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>331</v>
       </c>
       <c r="E104">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="F104">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="G104" t="s">
         <v>431</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>87047</v>
+        <v>87029</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>87031</v>
+        <v>110744</v>
       </c>
       <c r="B106" t="s">
         <v>111</v>
@@ -4129,22 +4129,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>34980</v>
+        <v>87047</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>334</v>
       </c>
       <c r="E107">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="F107">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="G107" t="s">
         <v>431</v>
@@ -4152,22 +4152,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>34986</v>
+        <v>87031</v>
       </c>
       <c r="B108" t="s">
         <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>335</v>
       </c>
       <c r="E108">
-        <v>415</v>
+        <v>299</v>
       </c>
       <c r="F108">
-        <v>415</v>
+        <v>299</v>
       </c>
       <c r="G108" t="s">
         <v>431</v>
@@ -4175,22 +4175,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>35042</v>
+        <v>34980</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>336</v>
       </c>
       <c r="E109">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="F109">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="G109" t="s">
         <v>431</v>
@@ -4198,22 +4198,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>39408</v>
+        <v>35042</v>
       </c>
       <c r="B110" t="s">
         <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>337</v>
       </c>
       <c r="E110">
-        <v>765</v>
+        <v>389</v>
       </c>
       <c r="F110">
-        <v>765</v>
+        <v>389</v>
       </c>
       <c r="G110" t="s">
         <v>431</v>
@@ -4221,22 +4221,22 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>152799</v>
+        <v>39408</v>
       </c>
       <c r="B111" t="s">
         <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>338</v>
       </c>
       <c r="E111">
-        <v>377</v>
+        <v>765</v>
       </c>
       <c r="F111">
-        <v>377</v>
+        <v>765</v>
       </c>
       <c r="G111" t="s">
         <v>431</v>
@@ -4244,22 +4244,22 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>39404</v>
+        <v>152799</v>
       </c>
       <c r="B112" t="s">
         <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>339</v>
       </c>
       <c r="E112">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F112">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="G112" t="s">
         <v>431</v>
@@ -4267,22 +4267,22 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>39430</v>
+        <v>39404</v>
       </c>
       <c r="B113" t="s">
         <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>340</v>
       </c>
       <c r="E113">
-        <v>765</v>
+        <v>359</v>
       </c>
       <c r="F113">
-        <v>765</v>
+        <v>359</v>
       </c>
       <c r="G113" t="s">
         <v>431</v>
@@ -4290,22 +4290,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>34988</v>
+        <v>39430</v>
       </c>
       <c r="B114" t="s">
         <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E114">
-        <v>625</v>
+        <v>765</v>
       </c>
       <c r="F114">
-        <v>625</v>
+        <v>765</v>
       </c>
       <c r="G114" t="s">
         <v>431</v>
@@ -4313,22 +4313,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>148137</v>
+        <v>34988</v>
       </c>
       <c r="B115" t="s">
         <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>342</v>
       </c>
       <c r="E115">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="F115">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="G115" t="s">
         <v>431</v>
@@ -4336,22 +4336,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>87141</v>
+        <v>148137</v>
       </c>
       <c r="B116" t="s">
         <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>343</v>
       </c>
       <c r="E116">
-        <v>749</v>
+        <v>611</v>
       </c>
       <c r="F116">
-        <v>749</v>
+        <v>611</v>
       </c>
       <c r="G116" t="s">
         <v>431</v>
@@ -4359,22 +4359,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>110740</v>
+        <v>87141</v>
       </c>
       <c r="B117" t="s">
         <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>344</v>
       </c>
       <c r="E117">
-        <v>299</v>
+        <v>749</v>
       </c>
       <c r="F117">
-        <v>299</v>
+        <v>749</v>
       </c>
       <c r="G117" t="s">
         <v>431</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>87033</v>
+        <v>110740</v>
       </c>
       <c r="B118" t="s">
         <v>123</v>
@@ -4405,22 +4405,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>87139</v>
+        <v>87033</v>
       </c>
       <c r="B119" t="s">
         <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>346</v>
       </c>
       <c r="E119">
-        <v>535</v>
+        <v>299</v>
       </c>
       <c r="F119">
-        <v>535</v>
+        <v>299</v>
       </c>
       <c r="G119" t="s">
         <v>431</v>
@@ -4428,22 +4428,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>107661</v>
+        <v>87139</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>347</v>
       </c>
       <c r="E120">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F120">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G120" t="s">
         <v>431</v>
@@ -4451,22 +4451,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>34984</v>
+        <v>107661</v>
       </c>
       <c r="B121" t="s">
         <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E121">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="F121">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="G121" t="s">
         <v>431</v>
@@ -4500,7 +4500,7 @@
         <v>148147</v>
       </c>
       <c r="B123" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C123" t="s">
         <v>208</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>87051</v>
+        <v>87035</v>
       </c>
       <c r="B127" t="s">
         <v>131</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>87045</v>
+        <v>87041</v>
       </c>
       <c r="B128" t="s">
         <v>132</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>87041</v>
+        <v>87045</v>
       </c>
       <c r="B129" t="s">
         <v>133</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>148143</v>
+        <v>87051</v>
       </c>
       <c r="B130" t="s">
         <v>134</v>
@@ -4670,10 +4670,10 @@
         <v>357</v>
       </c>
       <c r="E130">
-        <v>437</v>
+        <v>299</v>
       </c>
       <c r="F130">
-        <v>437</v>
+        <v>299</v>
       </c>
       <c r="G130" t="s">
         <v>431</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>148139</v>
+        <v>148143</v>
       </c>
       <c r="B131" t="s">
         <v>135</v>
@@ -4693,10 +4693,10 @@
         <v>358</v>
       </c>
       <c r="E131">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="F131">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="G131" t="s">
         <v>431</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>148129</v>
+        <v>148139</v>
       </c>
       <c r="B132" t="s">
         <v>136</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>87049</v>
+        <v>148129</v>
       </c>
       <c r="B133" t="s">
         <v>137</v>
@@ -4739,10 +4739,10 @@
         <v>360</v>
       </c>
       <c r="E133">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="F133">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="G133" t="s">
         <v>431</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>87039</v>
+        <v>87049</v>
       </c>
       <c r="B134" t="s">
         <v>138</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>87037</v>
+        <v>87039</v>
       </c>
       <c r="B135" t="s">
         <v>139</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>87035</v>
+        <v>87037</v>
       </c>
       <c r="B136" t="s">
         <v>140</v>

--- a/products.xlsx
+++ b/products.xlsx
@@ -355,12 +355,12 @@
     <t>Накладные колпачки, бирюзовые M</t>
   </si>
   <si>
+    <t>Накладные колпачки, серебряные M</t>
+  </si>
+  <si>
     <t>Накладные колпачки, разноцветные M</t>
   </si>
   <si>
-    <t>Накладные колпачки, серебряные M</t>
-  </si>
-  <si>
     <t>Пуходерка для кошек с каплей мини</t>
   </si>
   <si>
@@ -388,12 +388,12 @@
     <t>Щётка мягкая для кошек с пластиковой щетиной, 7х16 см</t>
   </si>
   <si>
+    <t>Накладные колпачки, зеленые светонакопит S</t>
+  </si>
+  <si>
     <t>Накладные колпачки, розовые M</t>
   </si>
   <si>
-    <t>Накладные колпачки, зеленые светонакопит S</t>
-  </si>
-  <si>
     <t>Расчёска для кошек, 22 см</t>
   </si>
   <si>
@@ -412,15 +412,15 @@
     <t>Расческа для кошек и собак разнозубая мини</t>
   </si>
   <si>
+    <t>Накладные колпачки, серебряные S</t>
+  </si>
+  <si>
+    <t>Накладные колпачки, зеленые светонакопит M</t>
+  </si>
+  <si>
     <t>Накладные колпачки, золотые M</t>
   </si>
   <si>
-    <t>Накладные колпачки, серебряные S</t>
-  </si>
-  <si>
-    <t>Накладные колпачки, зеленые светонакопит M</t>
-  </si>
-  <si>
     <t>Накладные колпачки, красные/бел (двухцв) M</t>
   </si>
   <si>
@@ -1030,12 +1030,12 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-biryuzovye-m.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-serebryanye-m.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/nakladnye-kolpachki-raznocvetnye-m.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-serebryanye-m.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/Puhoderka_dlya_koshek_348610_Pet_Layn_s_kapley_mini_1003040.html</t>
   </si>
   <si>
@@ -1063,12 +1063,12 @@
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/pukhoderki-i-shchetki/shchetka-myagkaya-dlya-koshek-s-plastikovoy-shchetinoy-7-h-16-sm.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-zelenye-svetonakopitelnye-s.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/nakladnye-kolpachki-rozovye-m.html</t>
   </si>
   <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-zelenye-svetonakopitelnye-s.html</t>
-  </si>
-  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/rascheski/rascheska-dlya-koshek-22-sm.html</t>
   </si>
   <si>
@@ -1090,13 +1090,13 @@
     <t>https://4lapy.ru/catalog/sobaki/tovary-dlya-shchenkov/tovary-dlya-gruminga-zaveli-shchenka/Rascheska_dlya_kosheksobak_3480_LS_Pet_Layn_raznozubaya_mini_1003042.html</t>
   </si>
   <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-serebryanye-s.html</t>
+  </si>
+  <si>
+    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-zelenye-svetonakopitelnye-m.html</t>
+  </si>
+  <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-zolotye-m.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-serebryanye-s.html</t>
-  </si>
-  <si>
-    <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-zelenye-svetonakopitelnye-m.html</t>
   </si>
   <si>
     <t>https://4lapy.ru/catalog/koshki/tovary-dlya-gruminga-koshki/antitsarapki-gruming/anticarapki-krasnye-belye-dvuhcvetnye-m.html</t>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>110744</v>
+        <v>87047</v>
       </c>
       <c r="B107" t="s">
         <v>113</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>87047</v>
+        <v>110744</v>
       </c>
       <c r="B108" t="s">
         <v>114</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>110740</v>
+        <v>87033</v>
       </c>
       <c r="B118" t="s">
         <v>124</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>87033</v>
+        <v>110740</v>
       </c>
       <c r="B119" t="s">
         <v>125</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <v>87051</v>
+        <v>87045</v>
       </c>
       <c r="B127" t="s">
         <v>132</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>87045</v>
+        <v>87035</v>
       </c>
       <c r="B128" t="s">
         <v>133</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>87035</v>
+        <v>87051</v>
       </c>
       <c r="B129" t="s">
         <v>134</v>
@@ -9700,13 +9700,13 @@
         <v>110744</v>
       </c>
       <c r="B308" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C308" t="s">
         <v>211</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E308">
         <v>299</v>
@@ -9726,13 +9726,13 @@
         <v>87047</v>
       </c>
       <c r="B309" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C309" t="s">
         <v>211</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E309">
         <v>299</v>
@@ -9934,13 +9934,13 @@
         <v>110740</v>
       </c>
       <c r="B317" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C317" t="s">
         <v>211</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E317">
         <v>299</v>
@@ -9960,13 +9960,13 @@
         <v>87033</v>
       </c>
       <c r="B318" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C318" t="s">
         <v>211</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E318">
         <v>299</v>
@@ -10116,13 +10116,13 @@
         <v>87051</v>
       </c>
       <c r="B324" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C324" t="s">
         <v>211</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E324">
         <v>299</v>
@@ -10142,13 +10142,13 @@
         <v>87045</v>
       </c>
       <c r="B325" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C325" t="s">
         <v>211</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E325">
         <v>299</v>
@@ -10168,13 +10168,13 @@
         <v>87035</v>
       </c>
       <c r="B326" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C326" t="s">
         <v>211</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E326">
         <v>299</v>
